--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/word_level_predictions_99.xlsx
@@ -1022,156 +1022,156 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>gear</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>lowered</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G124" t="b">
@@ -6893,371 +6893,371 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="E131" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/99/word_level_predictions_99.xlsx
@@ -1022,156 +1022,156 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>lowered</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6869,395 +6869,395 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>5</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>14</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>19</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" s="2" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
